--- a/biology/Médecine/Genou/Genou.xlsx
+++ b/biology/Médecine/Genou/Genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les primates dont l'Homme, le genou est le segment du membre inférieur situé entre la cuisse et la jambe. Il enferme l'articulation du genou. Sa partie antérieure est occupée par la patella palpable sous la peau. Sa partie postérieure correspond à la fosse poplitée.
 </t>
@@ -511,7 +523,9 @@
           <t>Topographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genou a pour limite supérieure la ligne circulaire qui passe à deux travers de doigt au-dessus de la patella.
 Sa limite inférieure est la ligne circulaire passant par l'extrémité inférieure de la tubérosité du tibia.
@@ -545,24 +559,133 @@
           <t>Arthrologie du genou</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genou abrite l'articulation du genou. C'est une articulation synoviale qui relie le fémur, le tibia et la patella. Elle est constituée de deux articulations :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genou abrite l'articulation du genou. C'est une articulation synoviale qui relie le fémur, le tibia et la patella. Elle est constituée de deux articulations :
 L'articulation fémoro-tibiale qui est une articulation constituée de deux paires de condyles : les condyles du fémur et les condyles du tibia,
-l'articulation fémoro-patellaire qui est un ginglyme entre le fémur et la patella.
-Surfaces articulaires
-Pour l'articulation fémoro-tibiale, les surfaces articulaires de l'articulation du genou sont :
+l'articulation fémoro-patellaire qui est un ginglyme entre le fémur et la patella.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Arthrologie du genou</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Surfaces articulaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Pour l'articulation fémoro-tibiale, les surfaces articulaires de l'articulation du genou sont :
 les condyles médial et latéral du fémur,
 les condyles médial et latéral du tibia.
 La congruence entre ces deux paires de condyles est assurée par deux disques articulaires : les ménisques médial et latéral de l'articulation du genou.
 Les deux systèmes condylaires sont dissymétriques.
 Pour l'articulation fémoro-patellaire, les surface articulaires sont :
 la surface articulaire de la patella sur sa face postérieure,
-la surface patellaire du fémur dans le prolongement antérieur des deux condyles fémoraux.
-Moyens d'union
-Les moyens d'union ligamentaires sont constitués d'un ensembles de ligaments intra-articulaires et extra-articulaires.
-Ligaments intra-articulaires
-Les ligaments intra-articulaires sont :
+la surface patellaire du fémur dans le prolongement antérieur des deux condyles fémoraux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Arthrologie du genou</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les moyens d'union ligamentaires sont constitués d'un ensembles de ligaments intra-articulaires et extra-articulaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arthrologie du genou</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ligaments intra-articulaires</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les ligaments intra-articulaires sont :
 la capsule,
 les ligaments croisés antérieur et postérieur,
 les ligaments méniscaux :
@@ -570,9 +693,47 @@
 les ligaments ménisco-tibiaux latéral et médial,
 les ligaments ménisco-patellaires,
 le ligament transverse du genou,
-le ligament muqueux.
-Ligaments extra-articulaires
-le ligament collatéral tibial,
+le ligament muqueux.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Arthrologie du genou</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Moyens d'union</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ligaments extra-articulaires</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le ligament collatéral tibial,
 le ligament collatéral fibulaire,
 le ligament poplité arqué,
 le ligament poplité oblique,
@@ -583,31 +744,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Genou</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Genou</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cinétique du genou</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">L'articulation du genou possède deux degrés de liberté.
 Le premier pour le mouvement d'extension et de flexion. A partir de la position de repos où la jambe est alignée avec la cuisse (0°), la jambe peut fléchir d'un angle de 160° sur la cuisse. La jambe peut physiologiquement effectuer une hyper-extension de l'ordre de -5°.
@@ -618,53 +781,198 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Genou</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Genou</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Examen clinique
-Un genou peut être douloureux, se bloquer ou présenter un gonflement, tandis que peuvent aussi se faire sentir dans la même zone du corps une sensation de dérobement ou un claquement à certains mouvements.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Examen clinique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un genou peut être douloureux, se bloquer ou présenter un gonflement, tandis que peuvent aussi se faire sentir dans la même zone du corps une sensation de dérobement ou un claquement à certains mouvements.
 Pour remédier à ce type de problèmes, une pratique d'inspection débute, le patient debout, au « garde à vous », à la recherche d'une asymétrie, d'une désaxation. La marche est analysée.
 La palpation est comparative entre les deux genoux, fléchis à 90°. Une chaleur locale, témoignant d'une inflammation est recherchée. Une douleur est recherchée au niveau de la patelle ou de ses tendons, du plateau tibial ou du péroné. Le genou est alors mobilisé de manière passive par l'examinateur en flexion, en extension et latéralement, à la recherche d'une anomalie de la mobilité ou d'une douleur provoquée.
 La recherche d'un épanchement se fait, le genou en extension, en cerclant avec les deux mains la rotule (afin de refouler le liquide éventuellement présent) et en appuyant avec l'index sur la face antérieure de cette dernière, à la recherche d'un « choc rotulien », percussion de la face postérieure de la rotule avec le massif fémoro-tibial.
 La recherche d'une lésion d'un ligament croisé se fait par la « manœuvre du tiroir » : le patient est allongé, le genou fléchi à 90°, l'examinateur immobilise le pied et, saisissant la partie haute du tibia à deux mains, essaye d'imprimer des mouvements antérieurs et postérieurs. Ces derniers ne doivent pas être retrouvés dans un genou normal.
-Lésions traumatiques
-Un traumatisme au genou peut entrainer entorses et fractures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lésions traumatiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un traumatisme au genou peut entrainer entorses et fractures.
 Les entorses peuvent toucher les ligaments croisés ou blesser les ménisques.
 Les fractures peuvent toucher un ou plusieurs des os de l'articulation : la patella, le fémur et le tibia.
 La fracture de Segond est une fracture par avulsion du bord du plateau tibial pouvant blesser le ménisque médial 60 à 70 % des cas() et le ligament croisé antérieur (&gt; 75 % des cas).
-Malformation congénitale
-Les déviations axiales dans le plan frontal de l'articulation (genu varum et genu valgum) sont très fréquentes chez l'enfant et la plupart du temps bénignes
-Maladies inflammatoires
-Toutes les pathologies inflammatoires des articulations peuvent toucher l'articulation du genou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Malformation congénitale</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les déviations axiales dans le plan frontal de l'articulation (genu varum et genu valgum) sont très fréquentes chez l'enfant et la plupart du temps bénignes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Maladies inflammatoires</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les pathologies inflammatoires des articulations peuvent toucher l'articulation du genou.
 La gonarthrose est une arthrose spécifique du genou pouvant apparaitre avec l'âge et favorisée par le surpoids, mais peut également apparaître après un traumatisme au genou.
 La maladie d'Osgood-Schlatter est une ostéonécrose bénigne de la tubérosité du tibia qui se résorbe après l'arrêt de la cause, souvent la pratique sportive chez un jeune.
 La maladie de Sinding-Larsen  est une ostéochondrose bénigne de l'apex de la patella et qui est auto-résolutive en 12 à 18 mois.
 Les bourses synoviales autour de l'articulation peuvent s'inflammer comme dans la bursite prépatellaire. La poche synoviale peut également générer une structure kystique comme dans le kyste de Baker ou kyste poplité à l'arrière de l'articulation.
-Imagerie
-Il existe différentes modalités d'imagerie pour explorer la pathologie du genou. La radiographie, souvent réalisée en première intention permet d'examiner l'état des cartilages, les détachements osseux et d'éventuels bâillements en position de schuss (flexion légère). La goniométrie consiste en la réalisation d'une radiographie de l'ensemble de la jambe pour observer les déviations du genou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aspect clinique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Imagerie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe différentes modalités d'imagerie pour explorer la pathologie du genou. La radiographie, souvent réalisée en première intention permet d'examiner l'état des cartilages, les détachements osseux et d'éventuels bâillements en position de schuss (flexion légère). La goniométrie consiste en la réalisation d'une radiographie de l'ensemble de la jambe pour observer les déviations du genou.
 L'arthrographie est réalisée à l'aide d'un produit de contraste injecté à l'intérieur de la capsule articulaire pour observer les ménisques et les ligaments. On l'associe souvent au scanner.
 La tomodensitométrie ou scanner est une technique d'imagerie en coupe aux rayons X, qui permet de reconstituer le genou en 3D et ainsi visualiser les ligaments et les ménisques. Il est également possible de réaliser un arthroscanner qui consiste à injecter un produit de contraste comme dans l'arthrographie pour améliorer l'interprétation des images.
 L'utilisation de l'échographie, à base d'ultrasons, est le meilleur moyen pour observer les tendons mais ne permet pas de constater les usures osseuses.
@@ -674,34 +982,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Genou</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Genou</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Genou</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Genou</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Chez les autres animaux</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les équidés, le membre locomoteur est caractérisé par le relèvement de l'autopode, si bien que le genou de la patte antérieure est analogue anatomiquement au poignet humain, cette confusion provenant de la terminologie utilisée dans le domaine de l'équitation et de l'anatomie comparée[2].
-Chez les oiseaux, le « genou » est l'articulation entre le fémur (en position très oblique, proche de l’horizontale lorsque l'animal est au repos) et le tibiotarse. Plus antérieur, il se situe au niveau du centre de masse[3].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les équidés, le membre locomoteur est caractérisé par le relèvement de l'autopode, si bien que le genou de la patte antérieure est analogue anatomiquement au poignet humain, cette confusion provenant de la terminologie utilisée dans le domaine de l'équitation et de l'anatomie comparée.
+Chez les oiseaux, le « genou » est l'articulation entre le fémur (en position très oblique, proche de l’horizontale lorsque l'animal est au repos) et le tibiotarse. Plus antérieur, il se situe au niveau du centre de masse.
 </t>
         </is>
       </c>
